--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1572088.477129205</v>
+        <v>1570765.913317269</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948781</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.47273605</v>
+        <v>1783678.472736049</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8133345.775161192</v>
+        <v>8133345.775161193</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>98.97945140661281</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>220.6900907554743</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>84.56607914632396</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>183.1398838614327</v>
       </c>
       <c r="D5" t="n">
-        <v>77.78769247277405</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>14.68136440275235</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>58.11593919665176</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>312.9490762142469</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>265.6027952281062</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>136.1769805884545</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1341,13 +1341,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.3157924738354</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>119.5236191444601</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>355.4445328256823</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>215.7942570968687</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>96.08513982486603</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260373</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>29.62080856053003</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2095,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.5175082466431</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>71.1338636409272</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914967</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U23" t="n">
-        <v>247.0106858669768</v>
+        <v>27.77593058653902</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>69.76512190206147</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>201.9915671360932</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>256.6554706538664</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
         <v>306.0455584304623</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508516</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>144.139690895556</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848277</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2772,16 +2772,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>219.0118098812075</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>158.2312817147888</v>
+        <v>79.34530250563913</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>69.76512190206147</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.83086970981764</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
-        <v>158.2312817147879</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>169.9367079279149</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>32.85877042621899</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3201,13 +3201,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>105.0629767141856</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914967</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>122.5603156417023</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920616</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>69.76512190206147</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>23.75756813739852</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3520,10 +3520,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H38" t="n">
-        <v>306.0455584304623</v>
+        <v>298.5800577860795</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>378.848503423149</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>97.70412288172906</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>173.3755836771243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>158.2312817147888</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>71.42047856476493</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.60934856763421</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.07896560696162</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.4697473695408</v>
+        <v>307.7953077308043</v>
       </c>
       <c r="H44" t="n">
         <v>306.0455584304623</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.234755280439</v>
@@ -4036,7 +4036,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
-        <v>119.6389231920616</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>144.139690895556</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>117.0812829725288</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
         <v>279.9659758737533</v>
@@ -4200,7 +4200,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.1983823596936</v>
+        <v>1596.954875986598</v>
       </c>
       <c r="C2" t="n">
-        <v>260.0737916729637</v>
+        <v>1590.870689340272</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>1186.406759433333</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>772.0665439502295</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>351.0361319039171</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4330,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1481.356235076093</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W2" t="n">
-        <v>1481.356235076093</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X2" t="n">
-        <v>1481.356235076093</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1080.419562024183</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,22 +4406,22 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>158.3214934345131</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
         <v>1192.007362767164</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1400.470981959868</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="T4" t="n">
-        <v>1400.470981959868</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U4" t="n">
-        <v>1117.672834505992</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V4" t="n">
-        <v>1117.672834505992</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W4" t="n">
-        <v>838.6031700148661</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X4" t="n">
-        <v>838.6031700148661</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.6031700148661</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.430108024969</v>
+        <v>570.0645900620057</v>
       </c>
       <c r="C5" t="n">
-        <v>1675.345921378643</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D5" t="n">
-        <v>1596.772494638468</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G5" t="n">
         <v>352.673583001884</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649055</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.610883649055</v>
+        <v>980.2857697264951</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524886</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,7 +4682,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
         <v>1196.626901649</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.2369020917747</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>482.2369020917747</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>322.7422574146847</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>322.7422574146847</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1556.334321237571</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1273.536173783695</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>999.6504287232169</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>720.5807642320913</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>482.2369020917747</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>482.2369020917747</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1280.493434973059</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C8" t="n">
-        <v>870.3688442863294</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D8" t="n">
-        <v>465.9049143793899</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,49 +4807,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L8" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L8" t="n">
-        <v>1075.450954962253</v>
-      </c>
       <c r="M8" t="n">
-        <v>1592.293889628578</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.674210597145</v>
+        <v>1205.42057873501</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1526093285881</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="C10" t="n">
-        <v>777.1526093285881</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>777.1526093285881</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
         <v>639.6001036836846</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>777.1526093285881</v>
+        <v>1372.440968497735</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.1526093285881</v>
+        <v>1147.7052698865</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2237.518802661711</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
         <v>885.5886702674165</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4182.917908737509</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.080354073989</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3449.320053209158</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
-        <v>3048.67665537811</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.7399823262</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
         <v>1760.328909494509</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>213.9746261193704</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>401.6743325134148</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>401.6743325134148</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>93.2436976906228</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5460,25 +5460,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V16" t="n">
-        <v>610.6572243220651</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W16" t="n">
-        <v>331.5875598309394</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
         <v>93.2436976906228</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2237.518802661711</v>
+        <v>2459.725286714853</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.394211974981</v>
+        <v>2049.600696028123</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.930282068041</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E17" t="n">
-        <v>1008.590066584938</v>
+        <v>1230.79655063808</v>
       </c>
       <c r="F17" t="n">
-        <v>587.5596545386256</v>
+        <v>809.7661385917677</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845998</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L17" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M17" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O17" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.124392790651</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.5265372623</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>3270.883139431252</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2869.946466379342</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G18" t="n">
         <v>184.7395020346666</v>
@@ -5591,31 +5591,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E19" t="n">
         <v>691.0787157447054</v>
@@ -5670,7 +5670,7 @@
         <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J19" t="n">
         <v>107.3262470958333</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1592.722585664473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1592.722585664473</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1592.722585664473</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1592.722585664473</v>
       </c>
       <c r="W19" t="n">
-        <v>1622.642594311473</v>
+        <v>1313.652921173347</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.012952997039</v>
+        <v>1075.309059033031</v>
       </c>
       <c r="Y19" t="n">
-        <v>1370.277254385804</v>
+        <v>850.5733604217953</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
         <v>404.1521950629048</v>
@@ -5752,7 +5752,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>735.0499203580262</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>650.1326709048901</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>490.6380262278001</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>329.7272110961196</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>165.0960852067109</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>165.0960852067109</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.756849250995</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X22" t="n">
-        <v>1348.756849250995</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="Y22" t="n">
-        <v>1348.756849250995</v>
+        <v>821.2260433431736</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J23" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L23" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M23" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N23" t="n">
         <v>3254.588416372259</v>
@@ -6007,19 +6007,19 @@
         <v>3926.785084202962</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344927</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338188</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968403</v>
+        <v>4739.658996968404</v>
       </c>
       <c r="T23" t="n">
-        <v>4739.658996968403</v>
+        <v>4518.209749210385</v>
       </c>
       <c r="U23" t="n">
         <v>4490.153253668426</v>
@@ -6065,31 +6065,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676374</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L24" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>1675.455246962759</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3667.263528640987</v>
+        <v>424.0874053104631</v>
       </c>
       <c r="C25" t="n">
-        <v>3496.170156202703</v>
+        <v>424.0874053104631</v>
       </c>
       <c r="D25" t="n">
-        <v>3336.675511525613</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="E25" t="n">
-        <v>3266.205691422521</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="F25" t="n">
-        <v>3266.205691422521</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G25" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="H25" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="I25" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J25" t="n">
-        <v>3285.665005263328</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K25" t="n">
-        <v>3449.05300863002</v>
+        <v>280.2672813142632</v>
       </c>
       <c r="L25" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025717</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.442036604622</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N25" t="n">
-        <v>4313.918606801932</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
-        <v>4584.228597795071</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>4799.101990217909</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R25" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="S25" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="T25" t="n">
-        <v>4870.998205338187</v>
+        <v>1498.180592026377</v>
       </c>
       <c r="U25" t="n">
-        <v>4870.998205338187</v>
+        <v>1215.386677002384</v>
       </c>
       <c r="V25" t="n">
-        <v>4597.112460277709</v>
+        <v>941.5009319419054</v>
       </c>
       <c r="W25" t="n">
-        <v>4318.042795786583</v>
+        <v>662.4312674507797</v>
       </c>
       <c r="X25" t="n">
-        <v>4079.698933646267</v>
+        <v>424.0874053104631</v>
       </c>
       <c r="Y25" t="n">
-        <v>3854.963235035031</v>
+        <v>424.0874053104631</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F26" t="n">
-        <v>665.804841969722</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G26" t="n">
         <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J26" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N26" t="n">
         <v>3254.588416372259</v>
@@ -6244,34 +6244,34 @@
         <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676373</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676373</v>
+        <v>769.257530938212</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676373</v>
+        <v>769.257530938212</v>
       </c>
       <c r="M27" t="n">
-        <v>514.8469186904414</v>
+        <v>769.257530938212</v>
       </c>
       <c r="N27" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3860.939749182635</v>
+        <v>256.9146087838537</v>
       </c>
       <c r="C28" t="n">
-        <v>3860.939749182635</v>
+        <v>256.9146087838537</v>
       </c>
       <c r="D28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="E28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F28" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G28" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H28" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I28" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J28" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K28" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L28" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025716</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N28" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R28" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="S28" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.957714591686</v>
+        <v>1462.995279339935</v>
       </c>
       <c r="U28" t="n">
-        <v>4082.163799567693</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.939749182635</v>
+        <v>906.3156192554632</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.939749182635</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="X28" t="n">
-        <v>3860.939749182635</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="Y28" t="n">
-        <v>3860.939749182635</v>
+        <v>402.5102561531022</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>257.2495415964494</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41996410676374</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
         <v>97.41996410676374</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547877</v>
@@ -6542,28 +6542,28 @@
         <v>97.41996410676374</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676374</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676374</v>
+        <v>769.257530938212</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676374</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230744</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3667.263528640987</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="C31" t="n">
-        <v>3496.170156202703</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="D31" t="n">
-        <v>3336.675511525613</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="E31" t="n">
-        <v>3266.205691422521</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F31" t="n">
-        <v>3266.205691422521</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G31" t="n">
-        <v>3266.205691422521</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H31" t="n">
-        <v>3266.205691422521</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I31" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J31" t="n">
-        <v>3285.665005263328</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K31" t="n">
-        <v>3449.05300863002</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L31" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025716</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.442036604622</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N31" t="n">
-        <v>4313.918606801932</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
-        <v>4584.228597795071</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>4799.101990217909</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R31" t="n">
-        <v>4870.998205338187</v>
+        <v>1673.090387406453</v>
       </c>
       <c r="S31" t="n">
-        <v>4870.998205338187</v>
+        <v>1488.050880633846</v>
       </c>
       <c r="T31" t="n">
-        <v>4870.998205338187</v>
+        <v>1248.83368195135</v>
       </c>
       <c r="U31" t="n">
-        <v>4870.998205338187</v>
+        <v>966.0397669273571</v>
       </c>
       <c r="V31" t="n">
-        <v>4597.112460277709</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="W31" t="n">
-        <v>4318.042795786583</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="X31" t="n">
-        <v>4079.698933646267</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="Y31" t="n">
-        <v>3854.963235035031</v>
+        <v>692.1540218668789</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F32" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G32" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L32" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M32" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344927</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338188</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968404</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210385</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168607</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505088</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640256</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3505.438158345676</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C33" t="n">
-        <v>3371.443087094622</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D33" t="n">
-        <v>3254.545929314014</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E33" t="n">
-        <v>3134.053113306342</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F33" t="n">
-        <v>3025.093233488847</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G33" t="n">
-        <v>2918.195675260429</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H33" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J33" t="n">
-        <v>2830.780385847138</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K33" t="n">
-        <v>2830.780385847138</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L33" t="n">
-        <v>2830.780385847138</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>3696.741976463449</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>4593.992910081895</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>4870.998205338186</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>4870.998205338186</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>4870.998205338186</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S33" t="n">
-        <v>4764.727353901733</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T33" t="n">
-        <v>4605.758549501929</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U33" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V33" t="n">
-        <v>4194.702300742211</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W33" t="n">
-        <v>3981.46913247854</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X33" t="n">
-        <v>3805.143150617433</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y33" t="n">
-        <v>3645.741190981263</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1183.652854113933</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="C34" t="n">
-        <v>1012.55948167565</v>
+        <v>456.152582326054</v>
       </c>
       <c r="D34" t="n">
-        <v>853.0648369985595</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E34" t="n">
-        <v>692.1540218668789</v>
+        <v>262.0510899961725</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475707</v>
       </c>
       <c r="K34" t="n">
-        <v>280.2672813142631</v>
+        <v>280.2672813142632</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025717</v>
       </c>
       <c r="M34" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N34" t="n">
         <v>1145.132879486175</v>
@@ -6879,31 +6879,31 @@
         <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
-        <v>1702.21247802243</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R34" t="n">
-        <v>1702.21247802243</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="S34" t="n">
-        <v>1702.21247802243</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339935</v>
       </c>
       <c r="U34" t="n">
-        <v>1702.21247802243</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>1702.21247802243</v>
+        <v>906.3156192554632</v>
       </c>
       <c r="W34" t="n">
-        <v>1702.21247802243</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="X34" t="n">
-        <v>1596.088259119213</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="Y34" t="n">
-        <v>1371.352560507977</v>
+        <v>627.2459547643375</v>
       </c>
     </row>
     <row r="35">
@@ -6934,43 +6934,43 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J35" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S35" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T35" t="n">
-        <v>4747.199906710204</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U35" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V35" t="n">
         <v>4140.315699004907</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3505.438158345676</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C36" t="n">
-        <v>3371.443087094622</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D36" t="n">
-        <v>3254.545929314014</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E36" t="n">
-        <v>3134.053113306342</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F36" t="n">
-        <v>3025.093233488847</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G36" t="n">
-        <v>2918.195675260429</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H36" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J36" t="n">
-        <v>2830.780385847138</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K36" t="n">
-        <v>2830.780385847138</v>
+        <v>769.257530938212</v>
       </c>
       <c r="L36" t="n">
-        <v>2830.780385847138</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>3696.741976463449</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>4593.992910081895</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>4870.998205338186</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>4870.998205338186</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>4870.998205338186</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S36" t="n">
-        <v>4764.727353901733</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T36" t="n">
-        <v>4605.758549501929</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U36" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V36" t="n">
-        <v>4194.702300742211</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W36" t="n">
-        <v>3981.46913247854</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X36" t="n">
-        <v>3805.143150617433</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y36" t="n">
-        <v>3645.741190981263</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3667.263528640986</v>
+        <v>777.5474658163563</v>
       </c>
       <c r="C37" t="n">
-        <v>3496.170156202702</v>
+        <v>606.4540933780728</v>
       </c>
       <c r="D37" t="n">
-        <v>3336.675511525612</v>
+        <v>446.9594487009828</v>
       </c>
       <c r="E37" t="n">
-        <v>3266.20569142252</v>
+        <v>286.0486335693023</v>
       </c>
       <c r="F37" t="n">
-        <v>3266.20569142252</v>
+        <v>121.4175076798936</v>
       </c>
       <c r="G37" t="n">
-        <v>3266.20569142252</v>
+        <v>121.4175076798936</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025716</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="S37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="T37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="U37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="V37" t="n">
-        <v>4597.112460277708</v>
+        <v>1428.326732961953</v>
       </c>
       <c r="W37" t="n">
-        <v>4318.042795786582</v>
+        <v>1428.326732961953</v>
       </c>
       <c r="X37" t="n">
-        <v>4079.698933646266</v>
+        <v>1189.982870821636</v>
       </c>
       <c r="Y37" t="n">
-        <v>3854.96323503503</v>
+        <v>965.2471722104007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2465.07134031066</v>
+        <v>2537.213237850829</v>
       </c>
       <c r="C38" t="n">
-        <v>2054.94674962393</v>
+        <v>2127.088647164099</v>
       </c>
       <c r="D38" t="n">
-        <v>1650.482819716991</v>
+        <v>1722.624717257159</v>
       </c>
       <c r="E38" t="n">
-        <v>1236.142604233887</v>
+        <v>1308.284501774056</v>
       </c>
       <c r="F38" t="n">
-        <v>815.1121921875749</v>
+        <v>887.2540897277436</v>
       </c>
       <c r="G38" t="n">
-        <v>406.5568918143014</v>
+        <v>478.69878935447</v>
       </c>
       <c r="H38" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J38" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344927</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338188</v>
       </c>
       <c r="S38" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968404</v>
       </c>
       <c r="T38" t="n">
-        <v>4649.548957580168</v>
+        <v>4739.658996968404</v>
       </c>
       <c r="U38" t="n">
-        <v>4392.50230453839</v>
+        <v>4482.612343926626</v>
       </c>
       <c r="V38" t="n">
-        <v>4042.66474987487</v>
+        <v>4132.774789263107</v>
       </c>
       <c r="W38" t="n">
-        <v>3658.904449010039</v>
+        <v>3749.014488398275</v>
       </c>
       <c r="X38" t="n">
-        <v>3276.22919302706</v>
+        <v>3348.371090567228</v>
       </c>
       <c r="Y38" t="n">
-        <v>2875.29251997515</v>
+        <v>2947.434417515318</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L39" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>592.6391071115459</v>
+        <v>573.0049744341466</v>
       </c>
       <c r="C40" t="n">
-        <v>421.5457346732624</v>
+        <v>573.0049744341466</v>
       </c>
       <c r="D40" t="n">
-        <v>262.0510899961724</v>
+        <v>413.5103297570566</v>
       </c>
       <c r="E40" t="n">
-        <v>262.0510899961724</v>
+        <v>413.5103297570566</v>
       </c>
       <c r="F40" t="n">
-        <v>97.41996410676373</v>
+        <v>413.5103297570566</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676373</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="I40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J40" t="n">
         <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2672813142631</v>
+        <v>280.2672813142632</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025717</v>
       </c>
       <c r="M40" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7353,31 +7353,31 @@
         <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>1702.21247802243</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R40" t="n">
-        <v>1702.21247802243</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="S40" t="n">
-        <v>1702.21247802243</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="T40" t="n">
-        <v>1462.995279339934</v>
+        <v>1462.995279339935</v>
       </c>
       <c r="U40" t="n">
-        <v>1180.201364315941</v>
+        <v>1462.995279339935</v>
       </c>
       <c r="V40" t="n">
-        <v>1180.201364315941</v>
+        <v>1189.109534279457</v>
       </c>
       <c r="W40" t="n">
-        <v>1180.201364315941</v>
+        <v>910.0398697883309</v>
       </c>
       <c r="X40" t="n">
-        <v>1005.074512116826</v>
+        <v>671.6960076480143</v>
       </c>
       <c r="Y40" t="n">
-        <v>780.3388135055902</v>
+        <v>671.6960076480143</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092808</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406078</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499139</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E41" t="n">
-        <v>1086.835254016035</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F41" t="n">
-        <v>665.8048419697229</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G41" t="n">
-        <v>257.2495415964494</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H41" t="n">
         <v>97.41996410676374</v>
@@ -7411,10 +7411,10 @@
         <v>97.41996410676374</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477957</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547877</v>
@@ -7441,22 +7441,22 @@
         <v>4739.658996968403</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210384</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168606</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505087</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640255</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809208</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757298</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676374</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676374</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K42" t="n">
-        <v>567.8743197625566</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L42" t="n">
-        <v>1248.658669000106</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="M42" t="n">
-        <v>1412.097852308888</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="N42" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.1663940127856</v>
+        <v>475.0881312904546</v>
       </c>
       <c r="C43" t="n">
-        <v>164.1663940127856</v>
+        <v>303.9947588521711</v>
       </c>
       <c r="D43" t="n">
-        <v>164.1663940127856</v>
+        <v>144.5001141750811</v>
       </c>
       <c r="E43" t="n">
-        <v>164.1663940127856</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F43" t="n">
-        <v>164.1663940127856</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1663940127856</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H43" t="n">
-        <v>164.1663940127856</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I43" t="n">
         <v>97.41996410676374</v>
@@ -7605,16 +7605,16 @@
         <v>1180.201364315941</v>
       </c>
       <c r="V43" t="n">
-        <v>906.3156192554632</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="W43" t="n">
-        <v>627.2459547643375</v>
+        <v>901.1316998248155</v>
       </c>
       <c r="X43" t="n">
-        <v>388.9020926240209</v>
+        <v>662.787837684499</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.1663940127856</v>
+        <v>662.787837684499</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2036.978607775863</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1632.514677868923</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.17446238582</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>797.1440503395074</v>
       </c>
       <c r="G44" t="n">
         <v>486.2396990962707</v>
@@ -7675,25 +7675,25 @@
         <v>4870.998205338187</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210384</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168606</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V44" t="n">
-        <v>4140.315699004907</v>
+        <v>4042.664749874871</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.555398140076</v>
+        <v>3658.90444901004</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3258.261051178992</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2857.324378127082</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.41996410676374</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676374</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676374</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>514.8469186904413</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.6838863012373</v>
+        <v>402.5102561531022</v>
       </c>
       <c r="C46" t="n">
-        <v>215.6838863012373</v>
+        <v>402.5102561531022</v>
       </c>
       <c r="D46" t="n">
-        <v>215.6838863012373</v>
+        <v>243.0156114760122</v>
       </c>
       <c r="E46" t="n">
-        <v>215.6838863012373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F46" t="n">
-        <v>215.6838863012373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G46" t="n">
         <v>97.41996410676374</v>
@@ -7836,22 +7836,22 @@
         <v>1702.212478022431</v>
       </c>
       <c r="T46" t="n">
-        <v>1702.212478022431</v>
+        <v>1462.995279339935</v>
       </c>
       <c r="U46" t="n">
-        <v>1419.418562998437</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V46" t="n">
-        <v>1145.532817937959</v>
+        <v>906.3156192554632</v>
       </c>
       <c r="W46" t="n">
-        <v>866.4631534468335</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="X46" t="n">
-        <v>628.119291306517</v>
+        <v>627.2459547643375</v>
       </c>
       <c r="Y46" t="n">
-        <v>403.3835926952817</v>
+        <v>402.5102561531022</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>269.8552598673813</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276486</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959033</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363632</v>
+        <v>535.1658287548267</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8236,7 +8236,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875377</v>
       </c>
       <c r="N6" t="n">
-        <v>359.4030239885896</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>552.9160747585987</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>528.6762761514418</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>568.5608520862971</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8783,10 +8783,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9014,22 +9014,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>399.498303055306</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>384.4175102257753</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,16 +9257,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>509.643175431829</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9500,10 +9500,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421725</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721345</v>
       </c>
       <c r="M24" t="n">
-        <v>34.34760704978716</v>
+        <v>34.3476070497871</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565492</v>
       </c>
       <c r="O24" t="n">
-        <v>502.8016768707304</v>
+        <v>35.95062976461607</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458868</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861585</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588056</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421725</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654506</v>
+        <v>36.21939520654501</v>
       </c>
       <c r="M27" t="n">
-        <v>455.9909955181485</v>
+        <v>34.3476070497871</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>426.0659948221387</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461607</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458868</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861585</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588056</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421725</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654506</v>
+        <v>432.9231496721346</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.3476070497871</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565492</v>
       </c>
       <c r="O30" t="n">
-        <v>315.7539583063247</v>
+        <v>35.95062976461607</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458868</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861585</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588056</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421725</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654506</v>
+        <v>432.9231496721345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.3476070497871</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565492</v>
       </c>
       <c r="O33" t="n">
-        <v>315.7539583063243</v>
+        <v>35.95062976461607</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458868</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861585</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588056</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421725</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654506</v>
+        <v>432.9231496721346</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.3476070497871</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565492</v>
       </c>
       <c r="O36" t="n">
-        <v>315.7539583063243</v>
+        <v>35.95062976461607</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458868</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861585</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588056</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421725</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721345</v>
       </c>
       <c r="M39" t="n">
-        <v>34.34760704978716</v>
+        <v>34.3476070497871</v>
       </c>
       <c r="N39" t="n">
-        <v>669.6587443611705</v>
+        <v>29.3622403565492</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461607</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458868</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861585</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588056</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856352</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654499</v>
       </c>
       <c r="M42" t="n">
-        <v>199.437691200072</v>
+        <v>34.34760704978707</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654918</v>
+        <v>426.0659948221386</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461605</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458861</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861581</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588054</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856352</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.0297227942172</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654499</v>
+        <v>432.9231496721344</v>
       </c>
       <c r="M45" t="n">
-        <v>455.9909955181482</v>
+        <v>34.34760704978707</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654917</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461605</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458861</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861581</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588054</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.85881956944058</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.19646844041381</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>55.35263051300458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.08319717252192</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>154.9070418783588</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23952,10 +23952,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.30520108346087</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>76.97751700167071</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7.465500644383806</v>
+        <v>226.7002559248215</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>89.53658507830225</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
@@ -24417,10 +24417,10 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>34.83345955957799</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>147.8142767156744</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914967</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>17.78846042958739</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>41.68301843454796</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>52.13507772866581</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>147.8142767156735</v>
+        <v>226.7002559248232</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>89.53658507830225</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848277</v>
+        <v>52.13507772866514</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>147.8142767156744</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>226.7002559248221</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.0409278041001</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>130.8974468047279</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>96.67443963873666</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>226.7002559248225</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>89.53658507830225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>123.6708252950481</v>
       </c>
       <c r="I37" t="n">
         <v>112.8724405582094</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.465500644382757</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>17.78846042958799</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>88.11858644837488</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>112.8724405582094</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>62.58483984178918</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>147.8142767156735</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.88597920914964</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.8142767156741</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>112.6923584127295</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25806,7 +25806,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>46.79347495124777</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>96.67443963873649</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>226.7002559248225</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>15.16201608480773</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>48.41978558881446</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
         <v>147.4283934324466</v>
@@ -26076,7 +26076,7 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681898.4308582933</v>
+        <v>681898.4308582934</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681898.4308582933</v>
+        <v>681898.4308582934</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>701207.9902189896</v>
+        <v>701207.9902189893</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>701207.9902189894</v>
+        <v>701207.9902189893</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>701207.9902189893</v>
+        <v>701207.9902189896</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>701207.9902189893</v>
+        <v>701207.9902189896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>701207.9902189894</v>
+        <v>701207.9902189896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>701207.9902189896</v>
+        <v>701207.9902189893</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>701207.9902189896</v>
+        <v>701207.9902189893</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908795</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908795</v>
       </c>
       <c r="D2" t="n">
         <v>456070.7004908795</v>
       </c>
       <c r="E2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="F2" t="n">
         <v>405508.1345491313</v>
       </c>
-      <c r="F2" t="n">
-        <v>405508.1345491315</v>
-      </c>
       <c r="G2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="H2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="I2" t="n">
-        <v>418923.2369159918</v>
+        <v>418923.2369159919</v>
       </c>
       <c r="J2" t="n">
-        <v>418923.2369159918</v>
+        <v>418923.2369159917</v>
       </c>
       <c r="K2" t="n">
         <v>418923.2369159918</v>
@@ -26346,16 +26346,16 @@
         <v>418923.2369159918</v>
       </c>
       <c r="M2" t="n">
+        <v>418923.2369159918</v>
+      </c>
+      <c r="N2" t="n">
         <v>418923.2369159919</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>418923.2369159916</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>418923.2369159919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>418923.2369159921</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.622615885</v>
+        <v>45948.62261588516</v>
       </c>
       <c r="J3" t="n">
         <v>136594.8008058949</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="F4" t="n">
-        <v>74374.3569647413</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="G4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="J4" t="n">
         <v>73588.2819417936</v>
@@ -26459,7 +26459,7 @@
         <v>73588.28194179358</v>
       </c>
       <c r="P4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.28194179357</v>
       </c>
     </row>
     <row r="5">
@@ -26484,28 +26484,28 @@
         <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="M5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="O5" t="n">
         <v>74967.83978868567</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12343.44175157568</v>
+        <v>12343.44175157588</v>
       </c>
       <c r="C6" t="n">
-        <v>187298.9516446898</v>
+        <v>187298.9516446899</v>
       </c>
       <c r="D6" t="n">
         <v>187298.9516446898</v>
       </c>
       <c r="E6" t="n">
-        <v>68138.80444007344</v>
+        <v>67958.22384742452</v>
       </c>
       <c r="F6" t="n">
-        <v>260268.5673395169</v>
+        <v>260087.9867468676</v>
       </c>
       <c r="G6" t="n">
-        <v>260268.5673395166</v>
+        <v>260087.9867468676</v>
       </c>
       <c r="H6" t="n">
-        <v>260268.5673395166</v>
+        <v>260087.9867468677</v>
       </c>
       <c r="I6" t="n">
-        <v>224418.4925696275</v>
+        <v>224285.82305686</v>
       </c>
       <c r="J6" t="n">
-        <v>133772.3143796177</v>
+        <v>133639.6448668501</v>
       </c>
       <c r="K6" t="n">
-        <v>270367.1151855126</v>
+        <v>270234.445672745</v>
       </c>
       <c r="L6" t="n">
-        <v>270367.1151855126</v>
+        <v>270234.445672745</v>
       </c>
       <c r="M6" t="n">
-        <v>110008.6646848299</v>
+        <v>109875.9951720625</v>
       </c>
       <c r="N6" t="n">
-        <v>270367.1151855123</v>
+        <v>270234.4456727451</v>
       </c>
       <c r="O6" t="n">
-        <v>270367.1151855127</v>
+        <v>270234.4456727449</v>
       </c>
       <c r="P6" t="n">
-        <v>270367.1151855129</v>
+        <v>270234.4456727452</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812908</v>
+        <v>42.59940676812909</v>
       </c>
       <c r="P3" t="n">
-        <v>42.59940676812908</v>
+        <v>42.59940676812909</v>
       </c>
     </row>
     <row r="4">
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812892</v>
+        <v>42.59940676812904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.2033302017619</v>
+        <v>52.20333020176213</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700251</v>
+        <v>522.0635703700252</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>301.4398392012572</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>183.9509105106218</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>99.96177129256488</v>
+        <v>142.0904386938125</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>222.8834609184298</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>322.631598135096</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4718872303126</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>177.8444843222617</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>97.24773711402531</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>80.73638388877794</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>23.12472639190918</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>123.6446310450781</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.171253896555292</v>
+        <v>0.1712538965552925</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096885</v>
+        <v>1.75385396809689</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947902</v>
+        <v>6.602265846947921</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275973</v>
+        <v>14.53496040275977</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394525</v>
+        <v>21.78413784394531</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064927</v>
+        <v>27.02514928064934</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351444</v>
+        <v>30.07068576351453</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710217</v>
+        <v>30.55726089710225</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323048</v>
+        <v>28.85435496323056</v>
       </c>
       <c r="P23" t="n">
-        <v>24.6265243920217</v>
+        <v>24.62652439202177</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163531</v>
+        <v>18.49349422163536</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949137</v>
+        <v>10.7575275794914</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753721</v>
+        <v>3.902448167753732</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707912</v>
+        <v>0.7496639321707933</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442336</v>
+        <v>0.0137003117244234</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106976</v>
+        <v>0.09162891267107003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284897</v>
+        <v>0.8849423934284921</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017095</v>
+        <v>3.154767388017104</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436465</v>
+        <v>8.65692284143649</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039814</v>
+        <v>14.79605999039818</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430399</v>
+        <v>19.89512860430404</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863026</v>
+        <v>23.21667668863033</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720073</v>
+        <v>23.8311530372008</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538386</v>
+        <v>21.80084923538393</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821507</v>
+        <v>17.49710350821512</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622287</v>
+        <v>11.6963503262229</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524843</v>
+        <v>5.689030209524859</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745527</v>
+        <v>1.701966864745532</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557591</v>
+        <v>0.3693288190557601</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886171</v>
+        <v>0.006028217938886188</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875707</v>
+        <v>0.07681860236875729</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513134</v>
+        <v>0.6829872101513152</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507713</v>
+        <v>2.31014487850772</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471124</v>
+        <v>5.43107518747114</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388319</v>
+        <v>8.924924893388344</v>
       </c>
       <c r="L25" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944233</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676802</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521175</v>
       </c>
       <c r="O25" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935853</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035851</v>
+        <v>9.290860781035876</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987467</v>
+        <v>6.432510421987486</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871567</v>
+        <v>3.454043702871576</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008248</v>
+        <v>1.338738734008251</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937801</v>
+        <v>0.3282249373937811</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00419010558375039</v>
+        <v>0.004190105583750402</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.171253896555292</v>
+        <v>0.1712538965552925</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096885</v>
+        <v>1.75385396809689</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947902</v>
+        <v>6.602265846947921</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275973</v>
+        <v>14.53496040275977</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394525</v>
+        <v>21.78413784394531</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064927</v>
+        <v>27.02514928064934</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351444</v>
+        <v>30.07068576351453</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710217</v>
+        <v>30.55726089710225</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323048</v>
+        <v>28.85435496323056</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6265243920217</v>
+        <v>24.62652439202177</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163531</v>
+        <v>18.49349422163536</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949137</v>
+        <v>10.7575275794914</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753721</v>
+        <v>3.902448167753732</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707912</v>
+        <v>0.7496639321707933</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442336</v>
+        <v>0.0137003117244234</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106976</v>
+        <v>0.09162891267107003</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284897</v>
+        <v>0.8849423934284921</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017095</v>
+        <v>3.154767388017104</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436465</v>
+        <v>8.65692284143649</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039814</v>
+        <v>14.79605999039818</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430399</v>
+        <v>19.89512860430404</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863026</v>
+        <v>23.21667668863033</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720073</v>
+        <v>23.8311530372008</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538386</v>
+        <v>21.80084923538393</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821507</v>
+        <v>17.49710350821512</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622287</v>
+        <v>11.6963503262229</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524843</v>
+        <v>5.689030209524859</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745527</v>
+        <v>1.701966864745532</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557591</v>
+        <v>0.3693288190557601</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886171</v>
+        <v>0.006028217938886188</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875707</v>
+        <v>0.07681860236875729</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513134</v>
+        <v>0.6829872101513152</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507713</v>
+        <v>2.31014487850772</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471124</v>
+        <v>5.43107518747114</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388319</v>
+        <v>8.924924893388344</v>
       </c>
       <c r="L28" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944233</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676802</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521175</v>
       </c>
       <c r="O28" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935853</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035851</v>
+        <v>9.290860781035876</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987467</v>
+        <v>6.432510421987486</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871567</v>
+        <v>3.454043702871576</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008248</v>
+        <v>1.338738734008251</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937801</v>
+        <v>0.3282249373937811</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00419010558375039</v>
+        <v>0.004190105583750402</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.171253896555292</v>
+        <v>0.1712538965552925</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096885</v>
+        <v>1.75385396809689</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947902</v>
+        <v>6.602265846947921</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275973</v>
+        <v>14.53496040275977</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394525</v>
+        <v>21.78413784394531</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064927</v>
+        <v>27.02514928064934</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351444</v>
+        <v>30.07068576351453</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710217</v>
+        <v>30.55726089710225</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323048</v>
+        <v>28.85435496323056</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6265243920217</v>
+        <v>24.62652439202177</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163531</v>
+        <v>18.49349422163536</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949137</v>
+        <v>10.7575275794914</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753721</v>
+        <v>3.902448167753732</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707912</v>
+        <v>0.7496639321707933</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442336</v>
+        <v>0.0137003117244234</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106976</v>
+        <v>0.09162891267107003</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284897</v>
+        <v>0.8849423934284921</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017095</v>
+        <v>3.154767388017104</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436465</v>
+        <v>8.65692284143649</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039814</v>
+        <v>14.79605999039818</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430399</v>
+        <v>19.89512860430404</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863026</v>
+        <v>23.21667668863033</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720073</v>
+        <v>23.8311530372008</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538386</v>
+        <v>21.80084923538393</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821507</v>
+        <v>17.49710350821512</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622287</v>
+        <v>11.6963503262229</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524843</v>
+        <v>5.689030209524859</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745527</v>
+        <v>1.701966864745532</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557591</v>
+        <v>0.3693288190557601</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886171</v>
+        <v>0.006028217938886188</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875707</v>
+        <v>0.07681860236875729</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513134</v>
+        <v>0.6829872101513152</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507713</v>
+        <v>2.31014487850772</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471124</v>
+        <v>5.43107518747114</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388319</v>
+        <v>8.924924893388344</v>
       </c>
       <c r="L31" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944233</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676802</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521175</v>
       </c>
       <c r="O31" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935853</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035851</v>
+        <v>9.290860781035876</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987467</v>
+        <v>6.432510421987486</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871567</v>
+        <v>3.454043702871576</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008248</v>
+        <v>1.338738734008251</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937801</v>
+        <v>0.3282249373937811</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00419010558375039</v>
+        <v>0.004190105583750402</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.171253896555292</v>
+        <v>0.1712538965552925</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096885</v>
+        <v>1.75385396809689</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947902</v>
+        <v>6.602265846947921</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275973</v>
+        <v>14.53496040275977</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394525</v>
+        <v>21.78413784394531</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064927</v>
+        <v>27.02514928064934</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351444</v>
+        <v>30.07068576351453</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710217</v>
+        <v>30.55726089710225</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323048</v>
+        <v>28.85435496323056</v>
       </c>
       <c r="P32" t="n">
-        <v>24.6265243920217</v>
+        <v>24.62652439202177</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163531</v>
+        <v>18.49349422163536</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949137</v>
+        <v>10.7575275794914</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753721</v>
+        <v>3.902448167753732</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707912</v>
+        <v>0.7496639321707933</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442336</v>
+        <v>0.0137003117244234</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106976</v>
+        <v>0.09162891267107003</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284897</v>
+        <v>0.8849423934284921</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017095</v>
+        <v>3.154767388017104</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436465</v>
+        <v>8.65692284143649</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039814</v>
+        <v>14.79605999039818</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430399</v>
+        <v>19.89512860430404</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863026</v>
+        <v>23.21667668863033</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720073</v>
+        <v>23.8311530372008</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538386</v>
+        <v>21.80084923538393</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821507</v>
+        <v>17.49710350821512</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622287</v>
+        <v>11.6963503262229</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524843</v>
+        <v>5.689030209524859</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745527</v>
+        <v>1.701966864745532</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557591</v>
+        <v>0.3693288190557601</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886171</v>
+        <v>0.006028217938886188</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875707</v>
+        <v>0.07681860236875729</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513134</v>
+        <v>0.6829872101513152</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507713</v>
+        <v>2.31014487850772</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471124</v>
+        <v>5.43107518747114</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388319</v>
+        <v>8.924924893388344</v>
       </c>
       <c r="L34" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944233</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676802</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521175</v>
       </c>
       <c r="O34" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935853</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035851</v>
+        <v>9.290860781035876</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987467</v>
+        <v>6.432510421987486</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871567</v>
+        <v>3.454043702871576</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008248</v>
+        <v>1.338738734008251</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937801</v>
+        <v>0.3282249373937811</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00419010558375039</v>
+        <v>0.004190105583750402</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.171253896555292</v>
+        <v>0.1712538965552925</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096885</v>
+        <v>1.75385396809689</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947902</v>
+        <v>6.602265846947921</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275973</v>
+        <v>14.53496040275977</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394525</v>
+        <v>21.78413784394531</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064927</v>
+        <v>27.02514928064934</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351444</v>
+        <v>30.07068576351453</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710217</v>
+        <v>30.55726089710225</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323048</v>
+        <v>28.85435496323056</v>
       </c>
       <c r="P35" t="n">
-        <v>24.6265243920217</v>
+        <v>24.62652439202177</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163531</v>
+        <v>18.49349422163536</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949137</v>
+        <v>10.7575275794914</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753721</v>
+        <v>3.902448167753732</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707912</v>
+        <v>0.7496639321707933</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442336</v>
+        <v>0.0137003117244234</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106976</v>
+        <v>0.09162891267107003</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284897</v>
+        <v>0.8849423934284921</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017095</v>
+        <v>3.154767388017104</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436465</v>
+        <v>8.65692284143649</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039814</v>
+        <v>14.79605999039818</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430399</v>
+        <v>19.89512860430404</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863026</v>
+        <v>23.21667668863033</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720073</v>
+        <v>23.8311530372008</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538386</v>
+        <v>21.80084923538393</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821507</v>
+        <v>17.49710350821512</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622287</v>
+        <v>11.6963503262229</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524843</v>
+        <v>5.689030209524859</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745527</v>
+        <v>1.701966864745532</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557591</v>
+        <v>0.3693288190557601</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886171</v>
+        <v>0.006028217938886188</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875707</v>
+        <v>0.07681860236875729</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513134</v>
+        <v>0.6829872101513152</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507713</v>
+        <v>2.31014487850772</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471124</v>
+        <v>5.43107518747114</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388319</v>
+        <v>8.924924893388344</v>
       </c>
       <c r="L37" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944233</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676802</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521175</v>
       </c>
       <c r="O37" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935853</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035851</v>
+        <v>9.290860781035876</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987467</v>
+        <v>6.432510421987486</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871567</v>
+        <v>3.454043702871576</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008248</v>
+        <v>1.338738734008251</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937801</v>
+        <v>0.3282249373937811</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00419010558375039</v>
+        <v>0.004190105583750402</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.171253896555292</v>
+        <v>0.1712538965552925</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096885</v>
+        <v>1.75385396809689</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947902</v>
+        <v>6.602265846947921</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275973</v>
+        <v>14.53496040275977</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394525</v>
+        <v>21.78413784394531</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064927</v>
+        <v>27.02514928064934</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351444</v>
+        <v>30.07068576351453</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710217</v>
+        <v>30.55726089710225</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323048</v>
+        <v>28.85435496323056</v>
       </c>
       <c r="P38" t="n">
-        <v>24.6265243920217</v>
+        <v>24.62652439202177</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163531</v>
+        <v>18.49349422163536</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949137</v>
+        <v>10.7575275794914</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753721</v>
+        <v>3.902448167753732</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707912</v>
+        <v>0.7496639321707933</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442336</v>
+        <v>0.0137003117244234</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106976</v>
+        <v>0.09162891267107003</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284897</v>
+        <v>0.8849423934284921</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017095</v>
+        <v>3.154767388017104</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436465</v>
+        <v>8.65692284143649</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039814</v>
+        <v>14.79605999039818</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430399</v>
+        <v>19.89512860430404</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863026</v>
+        <v>23.21667668863033</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720073</v>
+        <v>23.8311530372008</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538386</v>
+        <v>21.80084923538393</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821507</v>
+        <v>17.49710350821512</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622287</v>
+        <v>11.6963503262229</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524843</v>
+        <v>5.689030209524859</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745527</v>
+        <v>1.701966864745532</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557591</v>
+        <v>0.3693288190557601</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886171</v>
+        <v>0.006028217938886188</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875707</v>
+        <v>0.07681860236875729</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513134</v>
+        <v>0.6829872101513152</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507713</v>
+        <v>2.31014487850772</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471124</v>
+        <v>5.43107518747114</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388319</v>
+        <v>8.924924893388344</v>
       </c>
       <c r="L40" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944233</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676802</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521175</v>
       </c>
       <c r="O40" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935853</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035851</v>
+        <v>9.290860781035876</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987467</v>
+        <v>6.432510421987486</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871567</v>
+        <v>3.454043702871576</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008248</v>
+        <v>1.338738734008251</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937801</v>
+        <v>0.3282249373937811</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00419010558375039</v>
+        <v>0.004190105583750402</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,25 +34125,25 @@
         <v>0.1712538965552927</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096891</v>
+        <v>1.753853968096892</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947926</v>
+        <v>6.602265846947927</v>
       </c>
       <c r="J41" t="n">
         <v>14.53496040275978</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394532</v>
+        <v>21.78413784394533</v>
       </c>
       <c r="L41" t="n">
         <v>27.02514928064937</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351455</v>
+        <v>30.07068576351456</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710228</v>
+        <v>30.55726089710229</v>
       </c>
       <c r="O41" t="n">
         <v>28.85435496323059</v>
@@ -34158,10 +34158,10 @@
         <v>10.75752757949141</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753735</v>
+        <v>3.902448167753736</v>
       </c>
       <c r="T41" t="n">
-        <v>0.749663932170794</v>
+        <v>0.7496639321707941</v>
       </c>
       <c r="U41" t="n">
         <v>0.01370031172442341</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0916289126710701</v>
+        <v>0.09162891267107011</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284929</v>
+        <v>0.884942393428493</v>
       </c>
       <c r="I42" t="n">
         <v>3.154767388017107</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436497</v>
+        <v>8.656922841436499</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039819</v>
+        <v>14.7960599903982</v>
       </c>
       <c r="L42" t="n">
         <v>19.89512860430406</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863034</v>
+        <v>23.21667668863035</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720081</v>
+        <v>23.83115303720082</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538394</v>
+        <v>21.80084923538395</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821513</v>
+        <v>17.49710350821514</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622291</v>
+        <v>11.69635032622292</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524863</v>
+        <v>5.689030209524864</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745533</v>
+        <v>1.701966864745534</v>
       </c>
       <c r="T42" t="n">
         <v>0.3693288190557605</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886193</v>
+        <v>0.006028217938886194</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875734</v>
+        <v>0.07681860236875736</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513158</v>
+        <v>0.6829872101513159</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507721</v>
+        <v>2.310144878507722</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471144</v>
+        <v>5.431075187471145</v>
       </c>
       <c r="K43" t="n">
         <v>8.924924893388352</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944234</v>
+        <v>11.42083111944235</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676802</v>
+        <v>12.04166509676803</v>
       </c>
       <c r="N43" t="n">
         <v>11.75534121521176</v>
@@ -34307,10 +34307,10 @@
         <v>10.85796026935854</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035885</v>
+        <v>9.290860781035887</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987491</v>
+        <v>6.432510421987492</v>
       </c>
       <c r="R43" t="n">
         <v>3.45404370287158</v>
@@ -34322,7 +34322,7 @@
         <v>0.3282249373937813</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750405</v>
+        <v>0.004190105583750406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,25 +34362,25 @@
         <v>0.1712538965552927</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096891</v>
+        <v>1.753853968096892</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947926</v>
+        <v>6.602265846947927</v>
       </c>
       <c r="J44" t="n">
         <v>14.53496040275978</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394532</v>
+        <v>21.78413784394533</v>
       </c>
       <c r="L44" t="n">
         <v>27.02514928064937</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351455</v>
+        <v>30.07068576351456</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710228</v>
+        <v>30.55726089710229</v>
       </c>
       <c r="O44" t="n">
         <v>28.85435496323059</v>
@@ -34395,10 +34395,10 @@
         <v>10.75752757949141</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753735</v>
+        <v>3.902448167753736</v>
       </c>
       <c r="T44" t="n">
-        <v>0.749663932170794</v>
+        <v>0.7496639321707941</v>
       </c>
       <c r="U44" t="n">
         <v>0.01370031172442341</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0916289126710701</v>
+        <v>0.09162891267107011</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284929</v>
+        <v>0.884942393428493</v>
       </c>
       <c r="I45" t="n">
         <v>3.154767388017107</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436497</v>
+        <v>8.656922841436499</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039819</v>
+        <v>14.7960599903982</v>
       </c>
       <c r="L45" t="n">
         <v>19.89512860430406</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863034</v>
+        <v>23.21667668863035</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720081</v>
+        <v>23.83115303720082</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538394</v>
+        <v>21.80084923538395</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821513</v>
+        <v>17.49710350821514</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622291</v>
+        <v>11.69635032622292</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524863</v>
+        <v>5.689030209524864</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745533</v>
+        <v>1.701966864745534</v>
       </c>
       <c r="T45" t="n">
         <v>0.3693288190557605</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006028217938886193</v>
+        <v>0.006028217938886194</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875734</v>
+        <v>0.07681860236875736</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513158</v>
+        <v>0.6829872101513159</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507721</v>
+        <v>2.310144878507722</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471144</v>
+        <v>5.431075187471145</v>
       </c>
       <c r="K46" t="n">
         <v>8.924924893388352</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944234</v>
+        <v>11.42083111944235</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676802</v>
+        <v>12.04166509676803</v>
       </c>
       <c r="N46" t="n">
         <v>11.75534121521176</v>
@@ -34544,10 +34544,10 @@
         <v>10.85796026935854</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035885</v>
+        <v>9.290860781035887</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987491</v>
+        <v>6.432510421987492</v>
       </c>
       <c r="R46" t="n">
         <v>3.45404370287158</v>
@@ -34559,7 +34559,7 @@
         <v>0.3282249373937813</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750405</v>
+        <v>0.004190105583750406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>176.5650354103359</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>500.9700927793178</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="N6" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>176.5650354103359</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>471.1119924130244</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>512.4463282754481</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
@@ -35734,22 +35734,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>341.746824055306</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>328.3029864149263</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>453.5286516209799</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L23" t="n">
         <v>746.8144420202836</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N23" t="n">
         <v>791.3461665926759</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q23" t="n">
         <v>342.8985515906172</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682957</v>
+        <v>51.7238363568296</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L24" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>466.8510471061143</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K25" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L25" t="n">
         <v>273.943154634655</v>
       </c>
       <c r="M25" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N25" t="n">
         <v>295.4308789871817</v>
       </c>
       <c r="O25" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P25" t="n">
         <v>217.0438307301393</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543276</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L26" t="n">
         <v>746.8144420202836</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N26" t="n">
         <v>791.3461665926759</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q26" t="n">
         <v>342.8985515906172</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682957</v>
+        <v>51.7238363568296</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>421.6433884683613</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620672</v>
+        <v>396.7037544655896</v>
       </c>
       <c r="O27" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K28" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L28" t="n">
         <v>273.943154634655</v>
       </c>
       <c r="M28" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N28" t="n">
         <v>295.4308789871817</v>
       </c>
       <c r="O28" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P28" t="n">
         <v>217.0438307301393</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543276</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L29" t="n">
         <v>746.8144420202836</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N29" t="n">
         <v>791.3461665926759</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q29" t="n">
         <v>342.8985515906172</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682957</v>
+        <v>51.7238363568296</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655896</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K31" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L31" t="n">
         <v>273.943154634655</v>
       </c>
       <c r="M31" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N31" t="n">
         <v>295.4308789871817</v>
       </c>
       <c r="O31" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P31" t="n">
         <v>217.0438307301393</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543276</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L32" t="n">
         <v>746.8144420202836</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N32" t="n">
         <v>791.3461665926759</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q32" t="n">
         <v>342.8985515906172</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682957</v>
+        <v>51.7238363568296</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.8033285417081</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K34" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L34" t="n">
         <v>273.943154634655</v>
       </c>
       <c r="M34" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N34" t="n">
         <v>295.4308789871817</v>
       </c>
       <c r="O34" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P34" t="n">
         <v>217.0438307301393</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543276</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L35" t="n">
         <v>746.8144420202836</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N35" t="n">
         <v>791.3461665926759</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q35" t="n">
         <v>342.8985515906172</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682957</v>
+        <v>51.7238363568296</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.7037544655896</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417081</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K37" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L37" t="n">
         <v>273.943154634655</v>
       </c>
       <c r="M37" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N37" t="n">
         <v>295.4308789871817</v>
       </c>
       <c r="O37" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P37" t="n">
         <v>217.0438307301393</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543276</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L38" t="n">
         <v>746.8144420202836</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N38" t="n">
         <v>791.3461665926759</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q38" t="n">
         <v>342.8985515906172</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682957</v>
+        <v>51.7238363568296</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L39" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>640.2965040046213</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K40" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L40" t="n">
         <v>273.943154634655</v>
       </c>
       <c r="M40" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N40" t="n">
         <v>295.4308789871817</v>
       </c>
       <c r="O40" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P40" t="n">
         <v>217.0438307301393</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543276</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
         <v>475.2064198543363</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258074</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>165.0900841502849</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="O42" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581769</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>304.2275806932259</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871818</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425648</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="M45" t="n">
-        <v>421.6433884683611</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620673</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581769</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>304.2275806932259</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871818</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425648</v>
